--- a/exported_users.xlsx
+++ b/exported_users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,134 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>chrishouwayek</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SWt~X/#~?4/2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Houwayek</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>chris@example.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lukehawat</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>e#Zn6O,J^G_k</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hawat</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>luke@example.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cesarghanem</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>~NsU$`Y,rXVH</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cesar</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ghanem</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cesar@example.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ghadimouawad</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>55JCe./`NMU1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ghadi</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mouawad</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ghadi@example.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
